--- a/spliced/struggle/2023-03-25_18-15-22/accelerometer_selected.xlsx
+++ b/spliced/struggle/2023-03-25_18-15-22/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-2.052180111408234</v>
+        <v>1.136592060327531</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7846121788024902</v>
+        <v>-0.5052947402000403</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7869958281517029</v>
+        <v>1.006910741329194</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-2.117865264415741</v>
+        <v>-3.102525949478149</v>
       </c>
       <c r="B3" t="n">
-        <v>1.205321788787842</v>
+        <v>-7.741808414459229</v>
       </c>
       <c r="C3" t="n">
-        <v>1.084130614995957</v>
+        <v>0.0443248748779296</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-1.217162013053892</v>
+        <v>-0.8462124168872824</v>
       </c>
       <c r="B4" t="n">
-        <v>1.387937068939209</v>
+        <v>-1.410848729312418</v>
       </c>
       <c r="C4" t="n">
-        <v>3.501545310020452</v>
+        <v>-6.25395178794861</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.8415670692920691</v>
+        <v>4.942803740501414</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.2235499024391199</v>
+        <v>-7.510328069329272</v>
       </c>
       <c r="C5" t="n">
-        <v>5.247247695922851</v>
+        <v>-1.564183712005606</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.9400249123573342</v>
+        <v>3.684623420238498</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.967644095420841</v>
+        <v>-6.547261834144596</v>
       </c>
       <c r="C6" t="n">
-        <v>3.631645083427433</v>
+        <v>2.809367418289182</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.136592060327531</v>
+        <v>-2.489120721817007</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.5052947402000403</v>
+        <v>-3.182153344154361</v>
       </c>
       <c r="C7" t="n">
-        <v>1.006910741329194</v>
+        <v>2.89736366271973</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-3.102525949478149</v>
+        <v>-2.860559403896316</v>
       </c>
       <c r="B8" t="n">
-        <v>-7.741808414459229</v>
+        <v>-2.504158109426502</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0443248748779296</v>
+        <v>1.881697505712511</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.8462124168872824</v>
+        <v>2.841274738311764</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.410848729312418</v>
+        <v>-2.992074728012082</v>
       </c>
       <c r="C9" t="n">
-        <v>-6.25395178794861</v>
+        <v>1.633560657501217</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4.942803740501414</v>
+        <v>0.4830425977706894</v>
       </c>
       <c r="B10" t="n">
-        <v>-7.510328069329272</v>
+        <v>-0.9799425601959225</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.564183712005606</v>
+        <v>-0.1168481409549758</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3.684623420238498</v>
+        <v>2.629005432128906</v>
       </c>
       <c r="B11" t="n">
-        <v>-6.547261834144596</v>
+        <v>-1.44602632522583</v>
       </c>
       <c r="C11" t="n">
-        <v>2.809367418289182</v>
+        <v>6.930900573730469</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-2.489120721817007</v>
+        <v>0.08325040340423584</v>
       </c>
       <c r="B12" t="n">
-        <v>-3.182153344154361</v>
+        <v>-1.20862039923668</v>
       </c>
       <c r="C12" t="n">
-        <v>2.89736366271973</v>
+        <v>1.943817764520645</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-2.860559403896316</v>
+        <v>-1.441726684570314</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.504158109426502</v>
+        <v>-0.9328206181526182</v>
       </c>
       <c r="C13" t="n">
-        <v>1.881697505712511</v>
+        <v>5.954500854015357</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.841274738311764</v>
+        <v>-0.886786460876462</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.992074728012082</v>
+        <v>0.562802791595463</v>
       </c>
       <c r="C14" t="n">
-        <v>1.633560657501217</v>
+        <v>2.521360546350466</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.4830425977706894</v>
+        <v>0.6777331829071001</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.9799425601959225</v>
+        <v>-1.399440765380847</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.1168481409549758</v>
+        <v>0.4171198606491046</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.629005432128906</v>
+        <v>1.204387292265894</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.44602632522583</v>
+        <v>-3.619132399559024</v>
       </c>
       <c r="C16" t="n">
-        <v>6.930900573730469</v>
+        <v>-0.313209235668175</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.08325040340423584</v>
+        <v>1.067639499902725</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.20862039923668</v>
+        <v>-3.350790739059448</v>
       </c>
       <c r="C17" t="n">
-        <v>1.943817764520645</v>
+        <v>-3.138641357421875</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-1.441726684570314</v>
+        <v>3.527233093976973</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.9328206181526182</v>
+        <v>-5.226221919059754</v>
       </c>
       <c r="C18" t="n">
-        <v>5.954500854015357</v>
+        <v>-3.07070302963257</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.886786460876462</v>
+        <v>7.073627471923828</v>
       </c>
       <c r="B19" t="n">
-        <v>0.562802791595463</v>
+        <v>-3.28519868850708</v>
       </c>
       <c r="C19" t="n">
-        <v>2.521360546350466</v>
+        <v>-0.3319654464721679</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.6777331829071001</v>
+        <v>2.874565660953519</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.399440765380847</v>
+        <v>-0.3619521260261513</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4171198606491046</v>
+        <v>-1.012392401695252</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.204387292265894</v>
+        <v>-6.492176651954649</v>
       </c>
       <c r="B21" t="n">
-        <v>-3.619132399559024</v>
+        <v>-0.7134745419025422</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.313209235668175</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>1.067639499902725</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-3.350790739059448</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-3.138641357421875</v>
+        <v>7.389736890792848</v>
       </c>
     </row>
   </sheetData>
